--- a/srats_data_af.xlsx
+++ b/srats_data_af.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\yama\link_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814B0B35-7FDD-4E29-822E-13BC16150311}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EDB933-59AA-4F3B-8F01-2564FEA39626}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10640" activeTab="1" xr2:uid="{E1FB4D0C-5361-4839-9DA5-E6010339BD96}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="7750" windowHeight="10420" activeTab="3" xr2:uid="{E1FB4D0C-5361-4839-9DA5-E6010339BD96}"/>
   </bookViews>
   <sheets>
     <sheet name="SRATS graph" sheetId="34" r:id="rId1"/>
@@ -23035,7 +23035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B6178A-EA33-42FA-963D-EEAA37318287}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -27141,8 +27141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5DC7D2-1F32-4A7D-9DA9-9ECA0E69278B}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -27331,7 +27331,7 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>23.238013266495813</v>
+        <v>23.238013266495798</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
